--- a/biology/Médecine/1986_en_santé_et_médecine/1986_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1986_en_santé_et_médecine/1986_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1986_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1986_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1986 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1986_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1986_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>26 avril : catastrophe nucléaire de Tchernobyl.
 17-21 novembre : première Conférence internationale sur la promotion de la santé, à Ottawa (Canada), qui établit la charte d'Ottawa.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1986_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1986_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : Rita Levi-Montalcini et Stanley Cohen pour la découverte du facteur de croissance nerveuse.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1986_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1986_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>11 janvier : Joseph Kerharo, pharmacien militaire français, spécialiste de la flore médicinale et des pharmacopées traditionnelles africaines, né le 11 mai 1909.
 14 mars : Robert Courrier, biologiste français, médaille d'or du CNRS en 1963, né le 6 octobre 1895.
